--- a/examples/tutorial/figures_plot/data/ae_indiv_thread.xlsx
+++ b/examples/tutorial/figures_plot/data/ae_indiv_thread.xlsx
@@ -1233,13 +1233,14 @@
   <sheetPr/>
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" width="12.625"/>
+    <col min="14" max="14" width="12.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1321,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.873595024168057</v>
+        <v>0.6667</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1421,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.873595024168057</v>
+        <v>0.6667</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1471,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.928317766722556</v>
+        <v>0.8</v>
       </c>
       <c r="K5">
         <v>1</v>
